--- a/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.828405847848122</v>
+        <v>2.948946901312755</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.993597826673499</v>
+        <v>2.240897974227586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.21864908734011</v>
+        <v>-14.85163589909573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.781632616186335</v>
+        <v>4.345828095282568</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.485182477299666</v>
+        <v>-4.690701313332745</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-20.23223369141758</v>
+        <v>-20.16051660276254</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.203267406866422</v>
+        <v>4.727279477383465</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.481256550230218</v>
+        <v>-0.5718369577514959</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.06423192062788</v>
+        <v>-17.09515059171041</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.82464816802293</v>
+        <v>12.17037467516989</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.66678397174892</v>
+        <v>11.85759994158394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.278024184089982</v>
+        <v>-7.312801436881476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.38656735608331</v>
+        <v>12.44406408012844</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.271333246948291</v>
+        <v>4.071285594378872</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-13.61612357517247</v>
+        <v>-13.36761929276885</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.18649849285999</v>
+        <v>11.45909056083191</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.200479716609722</v>
+        <v>5.89130060971712</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-11.9840582726162</v>
+        <v>-12.17368082927023</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1231865016641693</v>
+        <v>0.1326088180749529</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09139008520053692</v>
+        <v>0.09783940051335989</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6671932542069663</v>
+        <v>-0.6686571418932745</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1287770381234278</v>
+        <v>0.1389815527871117</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1474758263672094</v>
+        <v>-0.1579642213944696</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6618740299706733</v>
+        <v>-0.6594948935036491</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1934338644252667</v>
+        <v>0.1759169490377451</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02024240255422394</v>
+        <v>-0.02318529671974949</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6407160245925818</v>
+        <v>-0.6399347213437356</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6617967407287102</v>
+        <v>0.684679795896028</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6614735527514926</v>
+        <v>0.6312997134823789</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3978324962982687</v>
+        <v>-0.3927337672963993</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4794889309115999</v>
+        <v>0.4702724779805458</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1608801971632823</v>
+        <v>0.1536420114638054</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.5161083465094175</v>
+        <v>-0.512165281005671</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4717802200721173</v>
+        <v>0.477761940873636</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2585212952914466</v>
+        <v>0.2474089508217765</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.505389529452084</v>
+        <v>-0.5073684221475248</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.570806421788828</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-45.09303266791286</v>
+        <v>-45.09303266791287</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>15.91572809003615</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.281399039221697</v>
+        <v>8.341487489575306</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8151110187135173</v>
+        <v>-0.8535990890780929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-40.02233958491724</v>
+        <v>-39.83742521032286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.22078376024315</v>
+        <v>15.28283319014123</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.484838643234349</v>
+        <v>-3.05176624025922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-48.34832206505941</v>
+        <v>-48.48814348212635</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>13.06873404297506</v>
+        <v>12.96344345477309</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2005410002250508</v>
+        <v>-0.4608428660592517</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-43.13847273460495</v>
+        <v>-43.30241194263825</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.13166336811919</v>
+        <v>17.20276670695934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.359888270723042</v>
+        <v>8.230281664126821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-32.90718949304946</v>
+        <v>-32.69332509827098</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23.26533592774757</v>
+        <v>23.37373210883833</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.576524136439411</v>
+        <v>5.358706775953755</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-41.52151143540191</v>
+        <v>-41.59220812144108</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.9542626121525</v>
+        <v>18.90759575226141</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.615702664468823</v>
+        <v>5.749591884607053</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-38.36684510330022</v>
+        <v>-38.5078380283658</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.02650723298463246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.7609413269082611</v>
+        <v>-0.7609413269082612</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3025001213724446</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1730175459896305</v>
+        <v>0.1757816169098378</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01701157020726153</v>
+        <v>-0.01839580345288751</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8274275780147555</v>
+        <v>-0.8274223353251797</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.245556135008274</v>
+        <v>0.2469472350934594</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03913758110583199</v>
+        <v>-0.04882876088746035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7863899578384691</v>
+        <v>-0.7879480081870416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2411906226231929</v>
+        <v>0.236510281876001</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.003836312225558621</v>
+        <v>-0.00908342426491773</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7980256807119376</v>
+        <v>-0.7974032636890173</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3919426672430182</v>
+        <v>0.3987675594520035</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1959246163081654</v>
+        <v>0.1923456732677053</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.7594615765162488</v>
+        <v>-0.7631678354933524</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4068553749345084</v>
+        <v>0.4122576605416039</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0981529403754683</v>
+        <v>0.09393166999239</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.73325402917927</v>
+        <v>-0.7337740419624169</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3718660991838786</v>
+        <v>0.3719326597766389</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.11008811712648</v>
+        <v>0.1110503584182461</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.7552411396460685</v>
+        <v>-0.754156603532806</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>10.08990048012842</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-45.00189619203774</v>
+        <v>-45.00189619203775</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>12.53819467502948</v>
+        <v>11.99185681288962</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.407519483609634</v>
+        <v>-1.703893996236984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-47.24598964151366</v>
+        <v>-47.19834080993531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.5088373670109</v>
+        <v>16.03065883806837</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.139867224002811</v>
+        <v>3.327659169820244</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-56.13635112618531</v>
+        <v>-55.20675784230468</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>17.0636638054904</v>
+        <v>17.07108899392187</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.005299615597405</v>
+        <v>4.877183555894926</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-49.72943839422298</v>
+        <v>-49.21769745502731</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>30.65798582084816</v>
+        <v>29.72204860253594</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.34153677165525</v>
+        <v>16.09455730133099</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-34.0347581322992</v>
+        <v>-34.15800643116521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31.08501640221747</v>
+        <v>31.90944038255295</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.83335519544519</v>
+        <v>18.72559765897829</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-43.67560113099178</v>
+        <v>-43.38061756638453</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>28.31104682491406</v>
+        <v>28.6892870955941</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.07303536321504</v>
+        <v>15.8722690375463</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-40.28817841290472</v>
+        <v>-40.47660830193319</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1864348354695694</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.8315167358592632</v>
+        <v>-0.8315167358592633</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2357526208844575</v>
+        <v>0.2313503979982752</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02602517359222466</v>
+        <v>-0.03221189609299622</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8864456228316581</v>
+        <v>-0.8890613202444436</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.250675583552723</v>
+        <v>0.2432898740798116</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05189681340886138</v>
+        <v>0.0495057033863536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8573614489638212</v>
+        <v>-0.8575766357059386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2999764923975019</v>
+        <v>0.2971208202803139</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.07210112882303281</v>
+        <v>0.0854688297416636</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8594241639255621</v>
+        <v>-0.8605535595160919</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7033987522429599</v>
+        <v>0.6860532323355152</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3760958939891847</v>
+        <v>0.3646983015337878</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.7787930429121482</v>
+        <v>-0.778022714665156</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5657465389390572</v>
+        <v>0.5700035612168539</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3438428589268278</v>
+        <v>0.3408736934091458</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.7817222298001026</v>
+        <v>-0.7812061997023387</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5627769686881454</v>
+        <v>0.5645858172142304</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.314605568439527</v>
+        <v>0.3083642868860079</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.7941990239214503</v>
+        <v>-0.7966146878675062</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>6.186671561631968</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-30.94953172185247</v>
+        <v>-30.94953172185246</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.133314974032643</v>
+        <v>9.269919313923253</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.007868811866917</v>
+        <v>3.887121103998603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-30.42186009741902</v>
+        <v>-30.44708039773058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12.73729609006455</v>
+        <v>12.94045472060958</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.46186180643774</v>
+        <v>2.313953494668775</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-35.35280631958865</v>
+        <v>-35.30938283310906</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>12.02067787556128</v>
+        <v>12.09448643532028</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.796746601836672</v>
+        <v>3.960912087896174</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-32.69950802243769</v>
+        <v>-32.66220617412444</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.57121057172465</v>
+        <v>15.61693206261412</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.35211637328873</v>
+        <v>10.3636225764058</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-25.53667218145069</v>
+        <v>-25.42960475884519</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.56232344877702</v>
+        <v>18.73161779748354</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.372901693521429</v>
+        <v>8.290099596111132</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-30.85055111974431</v>
+        <v>-30.77834630989435</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.04540572480939</v>
+        <v>16.22090654205844</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.341763213607759</v>
+        <v>8.32249118298769</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-29.28464036368437</v>
+        <v>-29.28969447511137</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1947470977178046</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.759271577628616</v>
+        <v>-0.7592715776286159</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3403991256596978</v>
@@ -1411,7 +1411,7 @@
         <v>0.147649388441363</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.738632944347325</v>
+        <v>-0.7386329443473248</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2368778773170567</v>
+        <v>0.2365434157652827</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1031328547608196</v>
+        <v>0.1006869160769144</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7903229424257846</v>
+        <v>-0.7897430906378998</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2664282536050769</v>
+        <v>0.2703805412737225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05209481959543262</v>
+        <v>0.04790122807098828</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7436383114095644</v>
+        <v>-0.7437579355919093</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2782732091083765</v>
+        <v>0.2803106506837986</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08905851213066304</v>
+        <v>0.09145567745579646</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7570848190576082</v>
+        <v>-0.7576520851942106</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4377773029026061</v>
+        <v>0.4355697781756654</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2947866497321079</v>
+        <v>0.2916870512258231</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.7249948692628604</v>
+        <v>-0.7208750015101647</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4162660201700131</v>
+        <v>0.4249338631438261</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1894769842673238</v>
+        <v>0.1845499967005055</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.6958448320528394</v>
+        <v>-0.6936003442110653</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3973220718712732</v>
+        <v>0.3960707758085611</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2046380964854852</v>
+        <v>0.2023511424812213</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.7184808741476016</v>
+        <v>-0.7190447301783546</v>
       </c>
     </row>
     <row r="28">
